--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.64453125" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.77734375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29242768231698252</v>
+        <v>0.29557997080455567</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29473219039761389</v>
+        <v>0.2777662574795457</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00011022020742387938</v>
+        <v>-0.0065525252587883207</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00010796502956242667</v>
+        <v>-0.00022026593419000943</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00057303972799391668</v>
+        <v>-0.00049689493104037501</v>
       </c>
       <c r="G3" s="0">
-        <v>2.9167749561308835e-06</v>
+        <v>-0.00011795246760222304</v>
       </c>
       <c r="H3" s="0">
-        <v>1.8815347035371538e-05</v>
+        <v>4.0822143734371149e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.2418198367431538e-06</v>
+        <v>0.00010983021615034344</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.993919705234326e-06</v>
+        <v>-0.00012366061687124619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29977888036375089</v>
+        <v>0.2735983614192446</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0017699453727504809</v>
+        <v>0.0051175650985363511</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.3192133643157107e-06</v>
+        <v>-5.7921824587402889e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.0161814980504054e-05</v>
+        <v>-1.3896695551633368e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.8080500082044612e-06</v>
+        <v>0.00025632076043153294</v>
       </c>
       <c r="I4" s="0">
-        <v>-4.7693072430783069e-06</v>
+        <v>-2.9401103286589376e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00043244437835221114</v>
+        <v>0.0035657895834695693</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00016931228700672873</v>
+        <v>-0.0004468172015372196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29986576152103689</v>
+        <v>0.26828313503321666</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00076044055280864394</v>
+        <v>-0.0034332802072454672</v>
       </c>
       <c r="E5" s="0">
-        <v>-6.1438300126673802e-05</v>
+        <v>-0.0015239301105266449</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00036492278670321456</v>
+        <v>0.0018430374849500385</v>
       </c>
       <c r="G5" s="0">
-        <v>2.3170995933178351e-05</v>
+        <v>4.9152749769538345e-06</v>
       </c>
       <c r="H5" s="0">
-        <v>1.186135883665795e-06</v>
+        <v>0.00022861055376943354</v>
       </c>
       <c r="I5" s="0">
-        <v>-7.0119244087093715e-05</v>
+        <v>2.2676896795413793e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0003631169744592877</v>
+        <v>-0.0016236880685185362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29690735091518072</v>
+        <v>0.25662335867775493</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0010187776604088919</v>
+        <v>-0.020615429732141668</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-3.3053114669746367e-07</v>
+        <v>2.9636063375196385e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-7.4773474549453184e-05</v>
+        <v>0.00025800805134536058</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-2.6383776776059451e-05</v>
+        <v>0.00034590151937264111</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00029042879749615756</v>
+        <v>0.0046046018484523828</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00071647608897890125</v>
+        <v>-0.00011199273130496623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29358300249086644</v>
+        <v>0.23686688635235267</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00078668392238468246</v>
+        <v>-0.0074293344729221</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00046182980678742482</v>
+        <v>0.00062726157196760712</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00020878557857322588</v>
+        <v>0.0016925892853915997</v>
       </c>
       <c r="G7" s="0">
-        <v>4.7732995367053884e-06</v>
+        <v>0.0026737617822169932</v>
       </c>
       <c r="H7" s="0">
-        <v>1.5061130589872595e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-3.0830972030660756e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>8.7802073260256908e-05</v>
+        <v>-0.0010898028197359744</v>
       </c>
     </row>
     <row r="8">
